--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -556,6 +556,23 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zequinha</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>34f63412f2a3bc2c5440fd8d27fc9fa78dd3ba39451f247ed91d4a04f4ed38d6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -1,33 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilizadores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Utilizadores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +46,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -341,239 +350,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="1" width="27.42578125"/>
-    <col customWidth="1" max="3" min="3" width="74"/>
-    <col customWidth="1" max="4" min="4" width="23"/>
-    <col customWidth="1" max="6" min="6" width="25.7109375"/>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>123@gmail.com</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">123             </t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>mail123@mail.com</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rui Azevedo</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>a03ab19b866fc585b5cb1812a2f63ca861e7e7643ee5d43fd7106b623725fd67</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>67b176705b46206614219f47a05aee7ae6a3edbe850bbbe214c536b989aea4d2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">123 </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>f372fd5a0bce0ade7c2339a622d124fd1950a9bc0584611f8c334931e39ced32</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>68f1927d51ddd7b49c381c7c7d006b813565e3b95f09136cdfc96f529a352a4e</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ruiazevedo1666@gmail.com</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1a9a118cb653759c3fcb3bd5060e6f9910c8c27008dd11fe4315f4635c9caa98</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ruiazevedo1666@gmail.com</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1d6442ddcfd9db1ff81df77cbefcd5afcc8c7ca952ab3101ede17a84b866d3f3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>zequinha</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>joao</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>34f63412f2a3bc2c5440fd8d27fc9fa78dd3ba39451f247ed91d4a04f4ed38d6</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Utilizadores" sheetId="1" r:id="rId1"/>
+    <sheet name="Utilizadores" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,18 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,21 +409,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="74" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col width="27.42578125" customWidth="1" min="1" max="2"/>
+    <col width="74" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="25.7109375" customWidth="1" min="6" max="6"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>67b176705b46206614219f47a05aee7ae6a3edbe850bbbe214c536b989aea4d2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b1b1bd1ed240b1496c81ccf19ceccf2af6fd24fac10ae42023628abbe2687310</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>rui</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>17984b58b5b6dfd23d19af46cbd0da28ed14726469744f8708279bfad1db7344</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rica</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2a848a9a752eac444c2617e5847b52b51e0e6f7acab6c9baeee3188a6aa065d6</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/Utilizadores.xlsx
+++ b/db/Utilizadores.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -496,6 +496,23 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Duarte</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>joaoduarte227@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d32997268f365aaafec538e89d564f61a40cc8e1ea81314b15038dc17453cf0f</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
